--- a/Site1_Neofax_Validation.xlsx
+++ b/Site1_Neofax_Validation.xlsx
@@ -4,12 +4,15 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20225"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="1720" yWindow="0" windowWidth="22800" windowHeight="11900" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="240" windowWidth="25360" windowHeight="14460"/>
   </bookViews>
   <sheets>
     <sheet name="Dose" sheetId="1" r:id="rId1"/>
     <sheet name="Frequency" sheetId="2" r:id="rId2"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Dose!$AK$1:$AK$138</definedName>
+  </definedNames>
   <calcPr calcId="140001" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
@@ -1021,422 +1024,429 @@
     <t>2019-12-12</t>
   </si>
   <si>
-    <t>xxxyyy.0000123</t>
+    <t>xxxyyy.00000123</t>
   </si>
   <si>
-    <t>xxxyyy.0000124</t>
+    <t>xxxyyy.00000124</t>
   </si>
   <si>
-    <t>xxxyyy.0000125</t>
+    <t>xxxyyy.00000125</t>
   </si>
   <si>
-    <t>xxxyyy.0000126</t>
+    <t>xxxyyy.00000126</t>
   </si>
   <si>
-    <t>xxxyyy.0000127</t>
+    <t>xxxyyy.00000127</t>
   </si>
   <si>
-    <t>xxxyyy.0000128</t>
+    <t>xxxyyy.00000128</t>
   </si>
   <si>
-    <t>xxxyyy.0000129</t>
+    <t>xxxyyy.00000129</t>
   </si>
   <si>
-    <t>xxxyyy.0000130</t>
+    <t>xxxyyy.00000130</t>
   </si>
   <si>
-    <t>xxxyyy.0000131</t>
+    <t>xxxyyy.00000131</t>
   </si>
   <si>
-    <t>xxxyyy.0000132</t>
+    <t>xxxyyy.00000132</t>
   </si>
   <si>
-    <t>xxxyyy.0000133</t>
+    <t>xxxyyy.00000133</t>
   </si>
   <si>
-    <t>xxxyyy.0000134</t>
+    <t>xxxyyy.00000134</t>
   </si>
   <si>
-    <t>xxxyyy.0000135</t>
+    <t>xxxyyy.00000135</t>
   </si>
   <si>
-    <t>xxxyyy.0000136</t>
+    <t>xxxyyy.00000136</t>
   </si>
   <si>
-    <t>xxxyyy.0000137</t>
+    <t>xxxyyy.00000137</t>
   </si>
   <si>
-    <t>xxxyyy.0000138</t>
+    <t>xxxyyy.00000138</t>
   </si>
   <si>
-    <t>xxxyyy.0000139</t>
+    <t>xxxyyy.00000139</t>
   </si>
   <si>
-    <t>xxxyyy.0000140</t>
+    <t>xxxyyy.00000140</t>
   </si>
   <si>
-    <t>xxxyyy.0000141</t>
+    <t>xxxyyy.00000141</t>
   </si>
   <si>
-    <t>xxxyyy.0000142</t>
+    <t>xxxyyy.00000142</t>
   </si>
   <si>
-    <t>xxxyyy.0000143</t>
+    <t>xxxyyy.00000143</t>
   </si>
   <si>
-    <t>xxxyyy.0000144</t>
+    <t>xxxyyy.00000144</t>
   </si>
   <si>
-    <t>xxxyyy.0000145</t>
+    <t>xxxyyy.00000145</t>
   </si>
   <si>
-    <t>xxxyyy.0000146</t>
+    <t>xxxyyy.00000146</t>
   </si>
   <si>
-    <t>xxxyyy.0000147</t>
+    <t>xxxyyy.00000147</t>
   </si>
   <si>
-    <t>xxxyyy.0000148</t>
+    <t>xxxyyy.00000148</t>
   </si>
   <si>
-    <t>xxxyyy.0000149</t>
+    <t>xxxyyy.00000149</t>
   </si>
   <si>
-    <t>xxxyyy.0000150</t>
+    <t>xxxyyy.00000150</t>
   </si>
   <si>
-    <t>xxxyyy.0000151</t>
+    <t>xxxyyy.00000151</t>
   </si>
   <si>
-    <t>xxxyyy.0000152</t>
+    <t>xxxyyy.00000152</t>
   </si>
   <si>
-    <t>xxxyyy.0000153</t>
+    <t>xxxyyy.00000153</t>
   </si>
   <si>
-    <t>xxxyyy.0000154</t>
+    <t>xxxyyy.00000154</t>
   </si>
   <si>
-    <t>xxxyyy.0000155</t>
+    <t>xxxyyy.00000155</t>
   </si>
   <si>
-    <t>xxxyyy.0000156</t>
+    <t>xxxyyy.00000156</t>
   </si>
   <si>
-    <t>xxxyyy.0000157</t>
+    <t>xxxyyy.00000157</t>
   </si>
   <si>
-    <t>xxxyyy.0000158</t>
+    <t>xxxyyy.00000158</t>
   </si>
   <si>
-    <t>xxxyyy.0000159</t>
+    <t>xxxyyy.00000159</t>
   </si>
   <si>
-    <t>xxxyyy.0000160</t>
+    <t>xxxyyy.00000160</t>
   </si>
   <si>
-    <t>xxxyyy.0000161</t>
+    <t>xxxyyy.00000161</t>
   </si>
   <si>
-    <t>xxxyyy.0000162</t>
+    <t>xxxyyy.00000162</t>
   </si>
   <si>
-    <t>xxxyyy.0000163</t>
+    <t>xxxyyy.00000163</t>
   </si>
   <si>
-    <t>xxxyyy.0000164</t>
+    <t>xxxyyy.00000164</t>
   </si>
   <si>
-    <t>xxxyyy.0000165</t>
+    <t>xxxyyy.00000165</t>
   </si>
   <si>
-    <t>xxxyyy.0000166</t>
+    <t>xxxyyy.00000166</t>
   </si>
   <si>
-    <t>xxxyyy.0000167</t>
+    <t>xxxyyy.00000167</t>
   </si>
   <si>
-    <t>xxxyyy.0000168</t>
+    <t>xxxyyy.00000168</t>
   </si>
   <si>
-    <t>xxxyyy.0000169</t>
+    <t>xxxyyy.00000169</t>
   </si>
   <si>
-    <t>xxxyyy.0000170</t>
+    <t>xxxyyy.00000170</t>
   </si>
   <si>
-    <t>xxxyyy.0000171</t>
+    <t>xxxyyy.00000171</t>
   </si>
   <si>
-    <t>xxxyyy.0000172</t>
+    <t>xxxyyy.00000172</t>
   </si>
   <si>
-    <t>xxxyyy.0000173</t>
+    <t>xxxyyy.00000173</t>
   </si>
   <si>
-    <t>xxxyyy.0000174</t>
+    <t>xxxyyy.00000174</t>
   </si>
   <si>
-    <t>xxxyyy.0000175</t>
+    <t>xxxyyy.00000175</t>
   </si>
   <si>
-    <t>xxxyyy.0000176</t>
+    <t>xxxyyy.00000176</t>
   </si>
   <si>
-    <t>xxxyyy.0000177</t>
+    <t>xxxyyy.00000177</t>
   </si>
   <si>
-    <t>xxxyyy.0000178</t>
+    <t>xxxyyy.00000178</t>
   </si>
   <si>
-    <t>xxxyyy.0000179</t>
+    <t>xxxyyy.00000179</t>
   </si>
   <si>
-    <t>xxxyyy.0000180</t>
+    <t>xxxyyy.00000180</t>
   </si>
   <si>
-    <t>xxxyyy.0000181</t>
+    <t>xxxyyy.00000181</t>
   </si>
   <si>
-    <t>xxxyyy.0000182</t>
+    <t>xxxyyy.00000182</t>
   </si>
   <si>
-    <t>xxxyyy.0000183</t>
+    <t>xxxyyy.00000183</t>
   </si>
   <si>
-    <t>xxxyyy.0000184</t>
+    <t>xxxyyy.00000184</t>
   </si>
   <si>
-    <t>xxxyyy.0000185</t>
+    <t>xxxyyy.00000185</t>
   </si>
   <si>
-    <t>xxxyyy.0000186</t>
+    <t>xxxyyy.00000186</t>
   </si>
   <si>
-    <t>xxxyyy.0000187</t>
+    <t>xxxyyy.00000187</t>
   </si>
   <si>
-    <t>xxxyyy.0000188</t>
+    <t>xxxyyy.00000188</t>
   </si>
   <si>
-    <t>xxxyyy.0000189</t>
+    <t>xxxyyy.00000189</t>
   </si>
   <si>
-    <t>xxxyyy.0000190</t>
+    <t>xxxyyy.00000190</t>
   </si>
   <si>
-    <t>xxxyyy.0000191</t>
+    <t>xxxyyy.00000191</t>
   </si>
   <si>
-    <t>xxxyyy.0000192</t>
+    <t>xxxyyy.00000192</t>
   </si>
   <si>
-    <t>xxxyyy.0000193</t>
+    <t>xxxyyy.00000193</t>
   </si>
   <si>
-    <t>xxxyyy.0000194</t>
+    <t>xxxyyy.00000194</t>
   </si>
   <si>
-    <t>xxxyyy.0000195</t>
+    <t>xxxyyy.00000195</t>
   </si>
   <si>
-    <t>xxxyyy.0000196</t>
+    <t>xxxyyy.00000196</t>
   </si>
   <si>
-    <t>xxxyyy.0000197</t>
+    <t>xxxyyy.00000197</t>
   </si>
   <si>
-    <t>xxxyyy.0000198</t>
+    <t>xxxyyy.00000198</t>
   </si>
   <si>
-    <t>xxxyyy.0000199</t>
+    <t>xxxyyy.00000199</t>
   </si>
   <si>
-    <t>xxxyyy.0000200</t>
+    <t>xxxyyy.00000200</t>
   </si>
   <si>
-    <t>xxxyyy.0000201</t>
+    <t>xxxyyy.00000201</t>
   </si>
   <si>
-    <t>xxxyyy.0000202</t>
+    <t>xxxyyy.00000202</t>
   </si>
   <si>
-    <t>xxxyyy.0000203</t>
+    <t>xxxyyy.00000203</t>
   </si>
   <si>
-    <t>xxxyyy.0000204</t>
+    <t>xxxyyy.00000204</t>
   </si>
   <si>
-    <t>xxxyyy.0000205</t>
+    <t>xxxyyy.00000205</t>
   </si>
   <si>
-    <t>xxxyyy.0000206</t>
+    <t>xxxyyy.00000206</t>
   </si>
   <si>
-    <t>xxxyyy.0000207</t>
+    <t>xxxyyy.00000207</t>
   </si>
   <si>
-    <t>xxxyyy.0000208</t>
+    <t>xxxyyy.00000208</t>
   </si>
   <si>
-    <t>xxxyyy.0000209</t>
+    <t>xxxyyy.00000209</t>
   </si>
   <si>
-    <t>xxxyyy.0000210</t>
+    <t>xxxyyy.00000210</t>
   </si>
   <si>
-    <t>xxxyyy.0000211</t>
+    <t>xxxyyy.00000211</t>
   </si>
   <si>
-    <t>xxxyyy.0000212</t>
+    <t>xxxyyy.00000212</t>
   </si>
   <si>
-    <t>xxxyyy.0000213</t>
+    <t>xxxyyy.00000213</t>
   </si>
   <si>
-    <t>xxxyyy.0000214</t>
+    <t>xxxyyy.00000214</t>
   </si>
   <si>
-    <t>xxxyyy.0000215</t>
+    <t>xxxyyy.00000215</t>
   </si>
   <si>
-    <t>xxxyyy.0000216</t>
+    <t>xxxyyy.00000216</t>
   </si>
   <si>
-    <t>xxxyyy.0000217</t>
+    <t>xxxyyy.00000217</t>
   </si>
   <si>
-    <t>xxxyyy.0000218</t>
+    <t>xxxyyy.00000218</t>
   </si>
   <si>
-    <t>xxxyyy.0000219</t>
+    <t>xxxyyy.00000219</t>
   </si>
   <si>
-    <t>xxxyyy.0000220</t>
+    <t>xxxyyy.00000220</t>
   </si>
   <si>
-    <t>xxxyyy.0000221</t>
+    <t>xxxyyy.00000221</t>
   </si>
   <si>
-    <t>xxxyyy.0000222</t>
+    <t>xxxyyy.00000222</t>
   </si>
   <si>
-    <t>xxxyyy.0000223</t>
+    <t>xxxyyy.00000223</t>
   </si>
   <si>
-    <t>xxxyyy.0000224</t>
+    <t>xxxyyy.00000224</t>
   </si>
   <si>
-    <t>xxxyyy.0000225</t>
+    <t>xxxyyy.00000225</t>
   </si>
   <si>
-    <t>xxxyyy.0000226</t>
+    <t>xxxyyy.00000226</t>
   </si>
   <si>
-    <t>xxxyyy.0000227</t>
+    <t>xxxyyy.00000227</t>
   </si>
   <si>
-    <t>xxxyyy.0000228</t>
+    <t>xxxyyy.00000228</t>
   </si>
   <si>
-    <t>xxxyyy.0000229</t>
+    <t>xxxyyy.00000229</t>
   </si>
   <si>
-    <t>xxxyyy.0000230</t>
+    <t>xxxyyy.00000230</t>
   </si>
   <si>
-    <t>xxxyyy.0000231</t>
+    <t>xxxyyy.00000231</t>
   </si>
   <si>
-    <t>xxxyyy.0000232</t>
+    <t>xxxyyy.00000232</t>
   </si>
   <si>
-    <t>xxxyyy.0000233</t>
+    <t>xxxyyy.00000233</t>
   </si>
   <si>
-    <t>xxxyyy.0000234</t>
+    <t>xxxyyy.00000234</t>
   </si>
   <si>
-    <t>xxxyyy.0000235</t>
+    <t>xxxyyy.00000235</t>
   </si>
   <si>
-    <t>xxxyyy.0000236</t>
+    <t>xxxyyy.00000236</t>
   </si>
   <si>
-    <t>xxxyyy.0000237</t>
+    <t>xxxyyy.00000237</t>
   </si>
   <si>
-    <t>xxxyyy.0000238</t>
+    <t>xxxyyy.00000238</t>
   </si>
   <si>
-    <t>xxxyyy.0000239</t>
+    <t>xxxyyy.00000239</t>
   </si>
   <si>
-    <t>xxxyyy.0000240</t>
+    <t>xxxyyy.00000240</t>
   </si>
   <si>
-    <t>xxxyyy.0000241</t>
+    <t>xxxyyy.00000241</t>
   </si>
   <si>
-    <t>xxxyyy.0000242</t>
+    <t>xxxyyy.00000242</t>
   </si>
   <si>
-    <t>xxxyyy.0000243</t>
+    <t>xxxyyy.00000243</t>
   </si>
   <si>
-    <t>xxxyyy.0000244</t>
+    <t>xxxyyy.00000244</t>
   </si>
   <si>
-    <t>xxxyyy.0000245</t>
+    <t>xxxyyy.00000245</t>
   </si>
   <si>
-    <t>xxxyyy.0000246</t>
+    <t>xxxyyy.00000246</t>
   </si>
   <si>
-    <t>xxxyyy.0000247</t>
+    <t>xxxyyy.00000247</t>
   </si>
   <si>
-    <t>xxxyyy.0000248</t>
+    <t>xxxyyy.00000248</t>
   </si>
   <si>
-    <t>xxxyyy.0000249</t>
+    <t>xxxyyy.00000249</t>
   </si>
   <si>
-    <t>xxxyyy.0000250</t>
+    <t>xxxyyy.00000250</t>
   </si>
   <si>
-    <t>xxxyyy.0000251</t>
+    <t>xxxyyy.00000251</t>
   </si>
   <si>
-    <t>xxxyyy.0000252</t>
+    <t>xxxyyy.00000252</t>
   </si>
   <si>
-    <t>xxxyyy.0000253</t>
+    <t>xxxyyy.00000253</t>
   </si>
   <si>
-    <t>xxxyyy.0000254</t>
+    <t>xxxyyy.00000254</t>
   </si>
   <si>
-    <t>xxxyyy.0000255</t>
+    <t>xxxyyy.00000255</t>
   </si>
   <si>
-    <t>xxxyyy.0000256</t>
+    <t>xxxyyy.00000256</t>
   </si>
   <si>
-    <t>xxxyyy.0000257</t>
+    <t>xxxyyy.00000257</t>
   </si>
   <si>
-    <t>xxxyyy.0000258</t>
+    <t>xxxyyy.00000258</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -1475,17 +1485,26 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="3">
+  <cellStyles count="7">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1817,8 +1836,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:CJM138"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:A1048576"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -1932,7 +1951,7 @@
       <c r="AJ1" t="s">
         <v>35</v>
       </c>
-      <c r="AK1" t="s">
+      <c r="AK1" s="1" t="s">
         <v>36</v>
       </c>
       <c r="AL1" t="s">
@@ -8721,6 +8740,9 @@
       <c r="CJK1" t="s">
         <v>57</v>
       </c>
+    </row>
+    <row r="2" spans="1:2301">
+      <c r="AK2" s="1"/>
     </row>
     <row r="3" spans="1:2301">
       <c r="A3" t="s">
@@ -8831,7 +8853,7 @@
       <c r="AJ3" t="b">
         <v>1</v>
       </c>
-      <c r="AK3" t="b">
+      <c r="AK3" s="1" t="b">
         <v>0</v>
       </c>
       <c r="AL3" t="b">
@@ -8980,7 +9002,7 @@
       <c r="AJ4" t="b">
         <v>0</v>
       </c>
-      <c r="AK4" t="b">
+      <c r="AK4" s="1" t="b">
         <v>0</v>
       </c>
       <c r="AL4" t="b">
@@ -9129,7 +9151,7 @@
       <c r="AJ5" t="b">
         <v>0</v>
       </c>
-      <c r="AK5" t="b">
+      <c r="AK5" s="1" t="b">
         <v>0</v>
       </c>
       <c r="AL5" t="b">
@@ -9278,7 +9300,7 @@
       <c r="AJ6" t="b">
         <v>0</v>
       </c>
-      <c r="AK6" t="b">
+      <c r="AK6" s="1" t="b">
         <v>0</v>
       </c>
       <c r="AL6" t="b">
@@ -9427,7 +9449,7 @@
       <c r="AJ7" t="b">
         <v>0</v>
       </c>
-      <c r="AK7" t="b">
+      <c r="AK7" s="1" t="b">
         <v>0</v>
       </c>
       <c r="AL7" t="b">
@@ -9576,7 +9598,7 @@
       <c r="AJ8" t="b">
         <v>0</v>
       </c>
-      <c r="AK8" t="b">
+      <c r="AK8" s="1" t="b">
         <v>0</v>
       </c>
       <c r="AL8" t="b">
@@ -9725,7 +9747,7 @@
       <c r="AJ9" t="b">
         <v>0</v>
       </c>
-      <c r="AK9" t="b">
+      <c r="AK9" s="1" t="b">
         <v>0</v>
       </c>
       <c r="AL9" t="b">
@@ -9874,8 +9896,8 @@
       <c r="AJ10" t="b">
         <v>1</v>
       </c>
-      <c r="AK10" t="b">
-        <v>0</v>
+      <c r="AK10" s="1" t="b">
+        <v>1</v>
       </c>
       <c r="AL10" t="b">
         <v>0</v>
@@ -11241,7 +11263,7 @@
       <c r="AJ11" t="b">
         <v>0</v>
       </c>
-      <c r="AK11" t="b">
+      <c r="AK11" s="1" t="b">
         <v>0</v>
       </c>
       <c r="AL11" t="b">
@@ -11390,7 +11412,7 @@
       <c r="AJ12" t="b">
         <v>0</v>
       </c>
-      <c r="AK12" t="b">
+      <c r="AK12" s="1" t="b">
         <v>0</v>
       </c>
       <c r="AL12" t="b">
@@ -11539,7 +11561,7 @@
       <c r="AJ13" t="b">
         <v>0</v>
       </c>
-      <c r="AK13" t="b">
+      <c r="AK13" s="1" t="b">
         <v>0</v>
       </c>
       <c r="AL13" t="b">
@@ -11688,7 +11710,7 @@
       <c r="AJ14" t="b">
         <v>0</v>
       </c>
-      <c r="AK14" t="b">
+      <c r="AK14" s="1" t="b">
         <v>0</v>
       </c>
       <c r="AL14" t="b">
@@ -11837,7 +11859,7 @@
       <c r="AJ15" t="b">
         <v>0</v>
       </c>
-      <c r="AK15" t="b">
+      <c r="AK15" s="1" t="b">
         <v>0</v>
       </c>
       <c r="AL15" t="b">
@@ -11986,7 +12008,7 @@
       <c r="AJ16" t="b">
         <v>1</v>
       </c>
-      <c r="AK16" t="b">
+      <c r="AK16" s="1" t="b">
         <v>0</v>
       </c>
       <c r="AL16" t="b">
@@ -12135,7 +12157,7 @@
       <c r="AJ17" t="b">
         <v>0</v>
       </c>
-      <c r="AK17" t="b">
+      <c r="AK17" s="1" t="b">
         <v>0</v>
       </c>
       <c r="AL17" t="b">
@@ -12284,7 +12306,7 @@
       <c r="AJ18" t="b">
         <v>0</v>
       </c>
-      <c r="AK18" t="b">
+      <c r="AK18" s="1" t="b">
         <v>0</v>
       </c>
       <c r="AL18" t="b">
@@ -12433,7 +12455,7 @@
       <c r="AJ19" t="b">
         <v>1</v>
       </c>
-      <c r="AK19" t="b">
+      <c r="AK19" s="1" t="b">
         <v>0</v>
       </c>
       <c r="AL19" t="b">
@@ -12582,7 +12604,7 @@
       <c r="AJ20" t="b">
         <v>1</v>
       </c>
-      <c r="AK20" t="b">
+      <c r="AK20" s="1" t="b">
         <v>0</v>
       </c>
       <c r="AL20" t="b">
@@ -12731,7 +12753,7 @@
       <c r="AJ21" t="b">
         <v>1</v>
       </c>
-      <c r="AK21" t="b">
+      <c r="AK21" s="1" t="b">
         <v>0</v>
       </c>
       <c r="AL21" t="b">
@@ -12880,7 +12902,7 @@
       <c r="AJ22" t="b">
         <v>0</v>
       </c>
-      <c r="AK22" t="b">
+      <c r="AK22" s="1" t="b">
         <v>0</v>
       </c>
       <c r="AL22" t="b">
@@ -13029,7 +13051,7 @@
       <c r="AJ23" t="b">
         <v>1</v>
       </c>
-      <c r="AK23" t="b">
+      <c r="AK23" s="1" t="b">
         <v>0</v>
       </c>
       <c r="AL23" t="b">
@@ -13178,8 +13200,8 @@
       <c r="AJ24" t="b">
         <v>1</v>
       </c>
-      <c r="AK24" t="b">
-        <v>0</v>
+      <c r="AK24" s="1" t="b">
+        <v>1</v>
       </c>
       <c r="AL24" t="b">
         <v>0</v>
@@ -14464,8 +14486,8 @@
       <c r="AJ25" t="b">
         <v>1</v>
       </c>
-      <c r="AK25" t="b">
-        <v>0</v>
+      <c r="AK25" s="1" t="b">
+        <v>1</v>
       </c>
       <c r="AL25" t="b">
         <v>0</v>
@@ -15426,7 +15448,7 @@
       <c r="AJ26" t="b">
         <v>0</v>
       </c>
-      <c r="AK26" t="b">
+      <c r="AK26" s="1" t="b">
         <v>0</v>
       </c>
       <c r="AL26" t="b">
@@ -15683,7 +15705,7 @@
       <c r="AJ27" t="b">
         <v>1</v>
       </c>
-      <c r="AK27" t="b">
+      <c r="AK27" s="1" t="b">
         <v>0</v>
       </c>
       <c r="AL27" t="b">
@@ -15832,7 +15854,7 @@
       <c r="AJ28" t="b">
         <v>1</v>
       </c>
-      <c r="AK28" t="b">
+      <c r="AK28" s="1" t="b">
         <v>1</v>
       </c>
       <c r="AL28" t="b">
@@ -16038,7 +16060,7 @@
       <c r="AJ29" t="b">
         <v>1</v>
       </c>
-      <c r="AK29" t="b">
+      <c r="AK29" s="1" t="b">
         <v>0</v>
       </c>
       <c r="AL29" t="b">
@@ -16187,7 +16209,7 @@
       <c r="AJ30" t="b">
         <v>1</v>
       </c>
-      <c r="AK30" t="b">
+      <c r="AK30" s="1" t="b">
         <v>0</v>
       </c>
       <c r="AL30" t="b">
@@ -16336,7 +16358,7 @@
       <c r="AJ31" t="b">
         <v>0</v>
       </c>
-      <c r="AK31" t="b">
+      <c r="AK31" s="1" t="b">
         <v>0</v>
       </c>
       <c r="AL31" t="b">
@@ -16485,7 +16507,7 @@
       <c r="AJ32" t="b">
         <v>1</v>
       </c>
-      <c r="AK32" t="b">
+      <c r="AK32" s="1" t="b">
         <v>0</v>
       </c>
       <c r="AL32" t="b">
@@ -16634,7 +16656,7 @@
       <c r="AJ33" t="b">
         <v>0</v>
       </c>
-      <c r="AK33" t="b">
+      <c r="AK33" s="1" t="b">
         <v>0</v>
       </c>
       <c r="AL33" t="b">
@@ -16783,7 +16805,7 @@
       <c r="AJ34" t="b">
         <v>0</v>
       </c>
-      <c r="AK34" t="b">
+      <c r="AK34" s="1" t="b">
         <v>0</v>
       </c>
       <c r="AL34" t="b">
@@ -16932,7 +16954,7 @@
       <c r="AJ35" t="b">
         <v>1</v>
       </c>
-      <c r="AK35" t="b">
+      <c r="AK35" s="1" t="b">
         <v>0</v>
       </c>
       <c r="AL35" t="b">
@@ -17081,7 +17103,7 @@
       <c r="AJ36" t="b">
         <v>1</v>
       </c>
-      <c r="AK36" t="b">
+      <c r="AK36" s="1" t="b">
         <v>0</v>
       </c>
       <c r="AL36" t="b">
@@ -17230,7 +17252,7 @@
       <c r="AJ37" t="b">
         <v>1</v>
       </c>
-      <c r="AK37" t="b">
+      <c r="AK37" s="1" t="b">
         <v>0</v>
       </c>
       <c r="AL37" t="b">
@@ -17379,7 +17401,7 @@
       <c r="AJ38" t="b">
         <v>0</v>
       </c>
-      <c r="AK38" t="b">
+      <c r="AK38" s="1" t="b">
         <v>0</v>
       </c>
       <c r="AL38" t="b">
@@ -17528,8 +17550,8 @@
       <c r="AJ39" t="b">
         <v>1</v>
       </c>
-      <c r="AK39" t="b">
-        <v>0</v>
+      <c r="AK39" s="1" t="b">
+        <v>1</v>
       </c>
       <c r="AL39" t="b">
         <v>0</v>
@@ -18166,7 +18188,7 @@
       <c r="AJ40" t="b">
         <v>0</v>
       </c>
-      <c r="AK40" t="b">
+      <c r="AK40" s="1" t="b">
         <v>1</v>
       </c>
       <c r="AL40" t="b">
@@ -18426,7 +18448,7 @@
       <c r="AJ41" t="b">
         <v>0</v>
       </c>
-      <c r="AK41" t="b">
+      <c r="AK41" s="1" t="b">
         <v>1</v>
       </c>
       <c r="AL41" t="b">
@@ -18686,7 +18708,7 @@
       <c r="AJ42" t="b">
         <v>1</v>
       </c>
-      <c r="AK42" t="b">
+      <c r="AK42" s="1" t="b">
         <v>0</v>
       </c>
       <c r="AL42" t="b">
@@ -18835,7 +18857,7 @@
       <c r="AJ43" t="b">
         <v>0</v>
       </c>
-      <c r="AK43" t="b">
+      <c r="AK43" s="1" t="b">
         <v>0</v>
       </c>
       <c r="AL43" t="b">
@@ -18984,7 +19006,7 @@
       <c r="AJ44" t="b">
         <v>0</v>
       </c>
-      <c r="AK44" t="b">
+      <c r="AK44" s="1" t="b">
         <v>0</v>
       </c>
       <c r="AL44" t="b">
@@ -19133,7 +19155,7 @@
       <c r="AJ45" t="b">
         <v>0</v>
       </c>
-      <c r="AK45" t="b">
+      <c r="AK45" s="1" t="b">
         <v>0</v>
       </c>
       <c r="AL45" t="b">
@@ -19282,8 +19304,8 @@
       <c r="AJ46" t="b">
         <v>1</v>
       </c>
-      <c r="AK46" t="b">
-        <v>0</v>
+      <c r="AK46" s="1" t="b">
+        <v>1</v>
       </c>
       <c r="AL46" t="b">
         <v>0</v>
@@ -19974,7 +19996,7 @@
       <c r="AJ47" t="b">
         <v>0</v>
       </c>
-      <c r="AK47" t="b">
+      <c r="AK47" s="1" t="b">
         <v>0</v>
       </c>
       <c r="AL47" t="b">
@@ -20123,8 +20145,8 @@
       <c r="AJ48" t="b">
         <v>0</v>
       </c>
-      <c r="AK48" t="b">
-        <v>0</v>
+      <c r="AK48" s="1" t="b">
+        <v>1</v>
       </c>
       <c r="AL48" t="b">
         <v>0</v>
@@ -24622,7 +24644,7 @@
       <c r="AJ49" t="b">
         <v>1</v>
       </c>
-      <c r="AK49" t="b">
+      <c r="AK49" s="1" t="b">
         <v>0</v>
       </c>
       <c r="AL49" t="b">
@@ -24771,7 +24793,7 @@
       <c r="AJ50" t="b">
         <v>1</v>
       </c>
-      <c r="AK50" t="b">
+      <c r="AK50" s="1" t="b">
         <v>0</v>
       </c>
       <c r="AL50" t="b">
@@ -24920,7 +24942,7 @@
       <c r="AJ51" t="b">
         <v>1</v>
       </c>
-      <c r="AK51" t="b">
+      <c r="AK51" s="1" t="b">
         <v>0</v>
       </c>
       <c r="AL51" t="b">
@@ -25069,7 +25091,7 @@
       <c r="AJ52" t="b">
         <v>0</v>
       </c>
-      <c r="AK52" t="b">
+      <c r="AK52" s="1" t="b">
         <v>0</v>
       </c>
       <c r="AL52" t="b">
@@ -25218,7 +25240,7 @@
       <c r="AJ53" t="b">
         <v>1</v>
       </c>
-      <c r="AK53" t="b">
+      <c r="AK53" s="1" t="b">
         <v>0</v>
       </c>
       <c r="AL53" t="b">
@@ -25367,7 +25389,7 @@
       <c r="AJ54" t="b">
         <v>0</v>
       </c>
-      <c r="AK54" t="b">
+      <c r="AK54" s="1" t="b">
         <v>0</v>
       </c>
       <c r="AL54" t="b">
@@ -25516,7 +25538,7 @@
       <c r="AJ55" t="b">
         <v>1</v>
       </c>
-      <c r="AK55" t="b">
+      <c r="AK55" s="1" t="b">
         <v>0</v>
       </c>
       <c r="AL55" t="b">
@@ -25665,7 +25687,7 @@
       <c r="AJ56" t="b">
         <v>1</v>
       </c>
-      <c r="AK56" t="b">
+      <c r="AK56" s="1" t="b">
         <v>0</v>
       </c>
       <c r="AL56" t="b">
@@ -25814,7 +25836,7 @@
       <c r="AJ57" t="b">
         <v>0</v>
       </c>
-      <c r="AK57" t="b">
+      <c r="AK57" s="1" t="b">
         <v>0</v>
       </c>
       <c r="AL57" t="b">
@@ -25963,7 +25985,7 @@
       <c r="AJ58" t="b">
         <v>1</v>
       </c>
-      <c r="AK58" t="b">
+      <c r="AK58" s="1" t="b">
         <v>0</v>
       </c>
       <c r="AL58" t="b">
@@ -26112,7 +26134,7 @@
       <c r="AJ59" t="b">
         <v>1</v>
       </c>
-      <c r="AK59" t="b">
+      <c r="AK59" s="1" t="b">
         <v>0</v>
       </c>
       <c r="AL59" t="b">
@@ -26261,7 +26283,7 @@
       <c r="AJ60" t="b">
         <v>1</v>
       </c>
-      <c r="AK60" t="b">
+      <c r="AK60" s="1" t="b">
         <v>0</v>
       </c>
       <c r="AL60" t="b">
@@ -26410,7 +26432,7 @@
       <c r="AJ61" t="b">
         <v>0</v>
       </c>
-      <c r="AK61" t="b">
+      <c r="AK61" s="1" t="b">
         <v>0</v>
       </c>
       <c r="AL61" t="b">
@@ -26559,7 +26581,7 @@
       <c r="AJ62" t="b">
         <v>0</v>
       </c>
-      <c r="AK62" t="b">
+      <c r="AK62" s="1" t="b">
         <v>0</v>
       </c>
       <c r="AL62" t="b">
@@ -26708,7 +26730,7 @@
       <c r="AJ63" t="b">
         <v>1</v>
       </c>
-      <c r="AK63" t="b">
+      <c r="AK63" s="1" t="b">
         <v>0</v>
       </c>
       <c r="AL63" t="b">
@@ -26857,7 +26879,7 @@
       <c r="AJ64" t="b">
         <v>0</v>
       </c>
-      <c r="AK64" t="b">
+      <c r="AK64" s="1" t="b">
         <v>0</v>
       </c>
       <c r="AL64" t="b">
@@ -27006,8 +27028,8 @@
       <c r="AJ65" t="b">
         <v>0</v>
       </c>
-      <c r="AK65" t="b">
-        <v>0</v>
+      <c r="AK65" s="1" t="b">
+        <v>1</v>
       </c>
       <c r="AL65" t="b">
         <v>0</v>
@@ -27644,8 +27666,8 @@
       <c r="AJ66" t="b">
         <v>0</v>
       </c>
-      <c r="AK66" t="b">
-        <v>0</v>
+      <c r="AK66" s="1" t="b">
+        <v>1</v>
       </c>
       <c r="AL66" t="b">
         <v>0</v>
@@ -29551,7 +29573,7 @@
       <c r="AJ67" t="b">
         <v>1</v>
       </c>
-      <c r="AK67" t="b">
+      <c r="AK67" s="1" t="b">
         <v>0</v>
       </c>
       <c r="AL67" t="b">
@@ -29700,8 +29722,8 @@
       <c r="AJ68" t="b">
         <v>1</v>
       </c>
-      <c r="AK68" t="b">
-        <v>0</v>
+      <c r="AK68" s="1" t="b">
+        <v>1</v>
       </c>
       <c r="AL68" t="b">
         <v>0</v>
@@ -30149,7 +30171,7 @@
       <c r="AJ69" t="b">
         <v>1</v>
       </c>
-      <c r="AK69" t="b">
+      <c r="AK69" s="1" t="b">
         <v>0</v>
       </c>
       <c r="AL69" t="b">
@@ -30298,7 +30320,7 @@
       <c r="AJ70" t="b">
         <v>1</v>
       </c>
-      <c r="AK70" t="b">
+      <c r="AK70" s="1" t="b">
         <v>0</v>
       </c>
       <c r="AL70" t="b">
@@ -30447,7 +30469,7 @@
       <c r="AJ71" t="b">
         <v>0</v>
       </c>
-      <c r="AK71" t="b">
+      <c r="AK71" s="1" t="b">
         <v>0</v>
       </c>
       <c r="AL71" t="b">
@@ -30596,7 +30618,7 @@
       <c r="AJ72" t="b">
         <v>0</v>
       </c>
-      <c r="AK72" t="b">
+      <c r="AK72" s="1" t="b">
         <v>0</v>
       </c>
       <c r="AL72" t="b">
@@ -30745,7 +30767,7 @@
       <c r="AJ73" t="b">
         <v>1</v>
       </c>
-      <c r="AK73" t="b">
+      <c r="AK73" s="1" t="b">
         <v>0</v>
       </c>
       <c r="AL73" t="b">
@@ -30894,7 +30916,7 @@
       <c r="AJ74" t="b">
         <v>0</v>
       </c>
-      <c r="AK74" t="b">
+      <c r="AK74" s="1" t="b">
         <v>0</v>
       </c>
       <c r="AL74" t="b">
@@ -31043,7 +31065,7 @@
       <c r="AJ75" t="b">
         <v>0</v>
       </c>
-      <c r="AK75" t="b">
+      <c r="AK75" s="1" t="b">
         <v>0</v>
       </c>
       <c r="AL75" t="b">
@@ -31192,8 +31214,8 @@
       <c r="AJ76" t="b">
         <v>0</v>
       </c>
-      <c r="AK76" t="b">
-        <v>0</v>
+      <c r="AK76" s="1" t="b">
+        <v>1</v>
       </c>
       <c r="AL76" t="b">
         <v>0</v>
@@ -31857,7 +31879,7 @@
       <c r="AJ77" t="b">
         <v>0</v>
       </c>
-      <c r="AK77" t="b">
+      <c r="AK77" s="1" t="b">
         <v>0</v>
       </c>
       <c r="AL77" t="b">
@@ -32006,7 +32028,7 @@
       <c r="AJ78" t="b">
         <v>0</v>
       </c>
-      <c r="AK78" t="b">
+      <c r="AK78" s="1" t="b">
         <v>0</v>
       </c>
       <c r="AL78" t="b">
@@ -32155,7 +32177,7 @@
       <c r="AJ79" t="b">
         <v>1</v>
       </c>
-      <c r="AK79" t="b">
+      <c r="AK79" s="1" t="b">
         <v>0</v>
       </c>
       <c r="AL79" t="b">
@@ -32523,7 +32545,7 @@
       <c r="AJ80" t="b">
         <v>1</v>
       </c>
-      <c r="AK80" t="b">
+      <c r="AK80" s="1" t="b">
         <v>0</v>
       </c>
       <c r="AL80" t="b">
@@ -32672,7 +32694,7 @@
       <c r="AJ81" t="b">
         <v>1</v>
       </c>
-      <c r="AK81" t="b">
+      <c r="AK81" s="1" t="b">
         <v>0</v>
       </c>
       <c r="AL81" t="b">
@@ -32821,7 +32843,7 @@
       <c r="AJ82" t="b">
         <v>1</v>
       </c>
-      <c r="AK82" t="b">
+      <c r="AK82" s="1" t="b">
         <v>0</v>
       </c>
       <c r="AL82" t="b">
@@ -32970,7 +32992,7 @@
       <c r="AJ83" t="b">
         <v>1</v>
       </c>
-      <c r="AK83" t="b">
+      <c r="AK83" s="1" t="b">
         <v>0</v>
       </c>
       <c r="AL83" t="b">
@@ -33119,7 +33141,7 @@
       <c r="AJ84" t="b">
         <v>1</v>
       </c>
-      <c r="AK84" t="b">
+      <c r="AK84" s="1" t="b">
         <v>0</v>
       </c>
       <c r="AL84" t="b">
@@ -33268,7 +33290,7 @@
       <c r="AJ85" t="b">
         <v>1</v>
       </c>
-      <c r="AK85" t="b">
+      <c r="AK85" s="1" t="b">
         <v>0</v>
       </c>
       <c r="AL85" t="b">
@@ -33417,7 +33439,7 @@
       <c r="AJ86" t="b">
         <v>0</v>
       </c>
-      <c r="AK86" t="b">
+      <c r="AK86" s="1" t="b">
         <v>0</v>
       </c>
       <c r="AL86" t="b">
@@ -33566,7 +33588,7 @@
       <c r="AJ87" t="b">
         <v>0</v>
       </c>
-      <c r="AK87" t="b">
+      <c r="AK87" s="1" t="b">
         <v>0</v>
       </c>
       <c r="AL87" t="b">
@@ -33715,7 +33737,7 @@
       <c r="AJ88" t="b">
         <v>0</v>
       </c>
-      <c r="AK88" t="b">
+      <c r="AK88" s="1" t="b">
         <v>0</v>
       </c>
       <c r="AL88" t="b">
@@ -33864,7 +33886,7 @@
       <c r="AJ89" t="b">
         <v>0</v>
       </c>
-      <c r="AK89" t="b">
+      <c r="AK89" s="1" t="b">
         <v>0</v>
       </c>
       <c r="AL89" t="b">
@@ -34013,7 +34035,7 @@
       <c r="AJ90" t="b">
         <v>0</v>
       </c>
-      <c r="AK90" t="b">
+      <c r="AK90" s="1" t="b">
         <v>0</v>
       </c>
       <c r="AL90" t="b">
@@ -34162,7 +34184,7 @@
       <c r="AJ91" t="b">
         <v>0</v>
       </c>
-      <c r="AK91" t="b">
+      <c r="AK91" s="1" t="b">
         <v>0</v>
       </c>
       <c r="AL91" t="b">
@@ -34311,7 +34333,7 @@
       <c r="AJ92" t="b">
         <v>1</v>
       </c>
-      <c r="AK92" t="b">
+      <c r="AK92" s="1" t="b">
         <v>0</v>
       </c>
       <c r="AL92" t="b">
@@ -36407,7 +36429,7 @@
       <c r="AJ93" t="b">
         <v>0</v>
       </c>
-      <c r="AK93" t="b">
+      <c r="AK93" s="1" t="b">
         <v>0</v>
       </c>
       <c r="AL93" t="b">
@@ -36556,7 +36578,7 @@
       <c r="AJ94" t="b">
         <v>0</v>
       </c>
-      <c r="AK94" t="b">
+      <c r="AK94" s="1" t="b">
         <v>0</v>
       </c>
       <c r="AL94" t="b">
@@ -36705,7 +36727,7 @@
       <c r="AJ95" t="b">
         <v>1</v>
       </c>
-      <c r="AK95" t="b">
+      <c r="AK95" s="1" t="b">
         <v>0</v>
       </c>
       <c r="AL95" t="b">
@@ -36854,7 +36876,7 @@
       <c r="AJ96" t="b">
         <v>0</v>
       </c>
-      <c r="AK96" t="b">
+      <c r="AK96" s="1" t="b">
         <v>0</v>
       </c>
       <c r="AL96" t="b">
@@ -37003,7 +37025,7 @@
       <c r="AJ97" t="b">
         <v>0</v>
       </c>
-      <c r="AK97" t="b">
+      <c r="AK97" s="1" t="b">
         <v>0</v>
       </c>
       <c r="AL97" t="b">
@@ -37236,7 +37258,7 @@
       <c r="AJ98" t="b">
         <v>0</v>
       </c>
-      <c r="AK98" t="b">
+      <c r="AK98" s="1" t="b">
         <v>0</v>
       </c>
       <c r="AL98" t="b">
@@ -37442,7 +37464,7 @@
       <c r="AJ99" t="b">
         <v>1</v>
       </c>
-      <c r="AK99" t="b">
+      <c r="AK99" s="1" t="b">
         <v>0</v>
       </c>
       <c r="AL99" t="b">
@@ -37591,7 +37613,7 @@
       <c r="AJ100" t="b">
         <v>0</v>
       </c>
-      <c r="AK100" t="b">
+      <c r="AK100" s="1" t="b">
         <v>0</v>
       </c>
       <c r="AL100" t="b">
@@ -37740,7 +37762,7 @@
       <c r="AJ101" t="b">
         <v>0</v>
       </c>
-      <c r="AK101" t="b">
+      <c r="AK101" s="1" t="b">
         <v>0</v>
       </c>
       <c r="AL101" t="b">
@@ -37946,7 +37968,7 @@
       <c r="AJ102" t="b">
         <v>0</v>
       </c>
-      <c r="AK102" t="b">
+      <c r="AK102" s="1" t="b">
         <v>0</v>
       </c>
       <c r="AL102" t="b">
@@ -38095,7 +38117,7 @@
       <c r="AJ103" t="b">
         <v>0</v>
       </c>
-      <c r="AK103" t="b">
+      <c r="AK103" s="1" t="b">
         <v>0</v>
       </c>
       <c r="AL103" t="b">
@@ -38244,7 +38266,7 @@
       <c r="AJ104" t="b">
         <v>0</v>
       </c>
-      <c r="AK104" t="b">
+      <c r="AK104" s="1" t="b">
         <v>0</v>
       </c>
       <c r="AL104" t="b">
@@ -38393,7 +38415,7 @@
       <c r="AJ105" t="b">
         <v>0</v>
       </c>
-      <c r="AK105" t="b">
+      <c r="AK105" s="1" t="b">
         <v>0</v>
       </c>
       <c r="AL105" t="b">
@@ -38542,7 +38564,7 @@
       <c r="AJ106" t="b">
         <v>0</v>
       </c>
-      <c r="AK106" t="b">
+      <c r="AK106" s="1" t="b">
         <v>0</v>
       </c>
       <c r="AL106" t="b">
@@ -38691,7 +38713,7 @@
       <c r="AJ107" t="b">
         <v>0</v>
       </c>
-      <c r="AK107" t="b">
+      <c r="AK107" s="1" t="b">
         <v>0</v>
       </c>
       <c r="AL107" t="b">
@@ -38840,7 +38862,7 @@
       <c r="AJ108" t="b">
         <v>1</v>
       </c>
-      <c r="AK108" t="b">
+      <c r="AK108" s="1" t="b">
         <v>0</v>
       </c>
       <c r="AL108" t="b">
@@ -38989,7 +39011,7 @@
       <c r="AJ109" t="b">
         <v>1</v>
       </c>
-      <c r="AK109" t="b">
+      <c r="AK109" s="1" t="b">
         <v>0</v>
       </c>
       <c r="AL109" t="b">
@@ -40302,7 +40324,7 @@
       <c r="AJ110" t="b">
         <v>1</v>
       </c>
-      <c r="AK110" t="b">
+      <c r="AK110" s="1" t="b">
         <v>0</v>
       </c>
       <c r="AL110" t="b">
@@ -41534,7 +41556,7 @@
       <c r="AJ111" t="b">
         <v>1</v>
       </c>
-      <c r="AK111" t="b">
+      <c r="AK111" s="1" t="b">
         <v>0</v>
       </c>
       <c r="AL111" t="b">
@@ -41683,7 +41705,7 @@
       <c r="AJ112" t="b">
         <v>1</v>
       </c>
-      <c r="AK112" t="b">
+      <c r="AK112" s="1" t="b">
         <v>0</v>
       </c>
       <c r="AL112" t="b">
@@ -42699,7 +42721,7 @@
       <c r="AJ113" t="b">
         <v>1</v>
       </c>
-      <c r="AK113" t="b">
+      <c r="AK113" s="1" t="b">
         <v>0</v>
       </c>
       <c r="AL113" t="b">
@@ -42848,7 +42870,7 @@
       <c r="AJ114" t="b">
         <v>0</v>
       </c>
-      <c r="AK114" t="b">
+      <c r="AK114" s="1" t="b">
         <v>0</v>
       </c>
       <c r="AL114" t="b">
@@ -42997,7 +43019,7 @@
       <c r="AJ115" t="b">
         <v>0</v>
       </c>
-      <c r="AK115" t="b">
+      <c r="AK115" s="1" t="b">
         <v>0</v>
       </c>
       <c r="AL115" t="b">
@@ -43146,7 +43168,7 @@
       <c r="AJ116" t="b">
         <v>0</v>
       </c>
-      <c r="AK116" t="b">
+      <c r="AK116" s="1" t="b">
         <v>0</v>
       </c>
       <c r="AL116" t="b">
@@ -43295,7 +43317,7 @@
       <c r="AJ117" t="b">
         <v>0</v>
       </c>
-      <c r="AK117" t="b">
+      <c r="AK117" s="1" t="b">
         <v>0</v>
       </c>
       <c r="AL117" t="b">
@@ -43444,7 +43466,7 @@
       <c r="AJ118" t="b">
         <v>1</v>
       </c>
-      <c r="AK118" t="b">
+      <c r="AK118" s="1" t="b">
         <v>0</v>
       </c>
       <c r="AL118" t="b">
@@ -43593,7 +43615,7 @@
       <c r="AJ119" t="b">
         <v>0</v>
       </c>
-      <c r="AK119" t="b">
+      <c r="AK119" s="1" t="b">
         <v>0</v>
       </c>
       <c r="AL119" t="b">
@@ -43742,7 +43764,7 @@
       <c r="AJ120" t="b">
         <v>0</v>
       </c>
-      <c r="AK120" t="b">
+      <c r="AK120" s="1" t="b">
         <v>0</v>
       </c>
       <c r="AL120" t="b">
@@ -43891,7 +43913,7 @@
       <c r="AJ121" t="b">
         <v>0</v>
       </c>
-      <c r="AK121" t="b">
+      <c r="AK121" s="1" t="b">
         <v>0</v>
       </c>
       <c r="AL121" t="b">
@@ -44040,7 +44062,7 @@
       <c r="AJ122" t="b">
         <v>0</v>
       </c>
-      <c r="AK122" t="b">
+      <c r="AK122" s="1" t="b">
         <v>0</v>
       </c>
       <c r="AL122" t="b">
@@ -44189,7 +44211,7 @@
       <c r="AJ123" t="b">
         <v>1</v>
       </c>
-      <c r="AK123" t="b">
+      <c r="AK123" s="1" t="b">
         <v>0</v>
       </c>
       <c r="AL123" t="b">
@@ -44338,7 +44360,7 @@
       <c r="AJ124" t="b">
         <v>1</v>
       </c>
-      <c r="AK124" t="b">
+      <c r="AK124" s="1" t="b">
         <v>0</v>
       </c>
       <c r="AL124" t="b">
@@ -44487,7 +44509,7 @@
       <c r="AJ125" t="b">
         <v>0</v>
       </c>
-      <c r="AK125" t="b">
+      <c r="AK125" s="1" t="b">
         <v>0</v>
       </c>
       <c r="AL125" t="b">
@@ -44636,7 +44658,7 @@
       <c r="AJ126" t="b">
         <v>1</v>
       </c>
-      <c r="AK126" t="b">
+      <c r="AK126" s="1" t="b">
         <v>0</v>
       </c>
       <c r="AL126" t="b">
@@ -44785,7 +44807,7 @@
       <c r="AJ127" t="b">
         <v>0</v>
       </c>
-      <c r="AK127" t="b">
+      <c r="AK127" s="1" t="b">
         <v>0</v>
       </c>
       <c r="AL127" t="b">
@@ -45342,7 +45364,7 @@
       <c r="AJ128" t="b">
         <v>1</v>
       </c>
-      <c r="AK128" t="b">
+      <c r="AK128" s="1" t="b">
         <v>0</v>
       </c>
       <c r="AL128" t="b">
@@ -45491,7 +45513,7 @@
       <c r="AJ129" t="b">
         <v>1</v>
       </c>
-      <c r="AK129" t="b">
+      <c r="AK129" s="1" t="b">
         <v>0</v>
       </c>
       <c r="AL129" t="b">
@@ -45640,7 +45662,7 @@
       <c r="AJ130" t="b">
         <v>0</v>
       </c>
-      <c r="AK130" t="b">
+      <c r="AK130" s="1" t="b">
         <v>0</v>
       </c>
       <c r="AL130" t="b">
@@ -45789,7 +45811,7 @@
       <c r="AJ131" t="b">
         <v>1</v>
       </c>
-      <c r="AK131" t="b">
+      <c r="AK131" s="1" t="b">
         <v>0</v>
       </c>
       <c r="AL131" t="b">
@@ -45938,7 +45960,7 @@
       <c r="AJ132" t="b">
         <v>0</v>
       </c>
-      <c r="AK132" t="b">
+      <c r="AK132" s="1" t="b">
         <v>0</v>
       </c>
       <c r="AL132" t="b">
@@ -46087,7 +46109,7 @@
       <c r="AJ133" t="b">
         <v>1</v>
       </c>
-      <c r="AK133" t="b">
+      <c r="AK133" s="1" t="b">
         <v>0</v>
       </c>
       <c r="AL133" t="b">
@@ -46236,7 +46258,7 @@
       <c r="AJ134" t="b">
         <v>0</v>
       </c>
-      <c r="AK134" t="b">
+      <c r="AK134" s="1" t="b">
         <v>0</v>
       </c>
       <c r="AL134" t="b">
@@ -46385,7 +46407,7 @@
       <c r="AJ135" t="b">
         <v>0</v>
       </c>
-      <c r="AK135" t="b">
+      <c r="AK135" s="1" t="b">
         <v>0</v>
       </c>
       <c r="AL135" t="b">
@@ -46534,7 +46556,7 @@
       <c r="AJ136" t="b">
         <v>0</v>
       </c>
-      <c r="AK136" t="b">
+      <c r="AK136" s="1" t="b">
         <v>0</v>
       </c>
       <c r="AL136" t="b">
@@ -46713,7 +46735,7 @@
       <c r="AJ137" t="b">
         <v>1</v>
       </c>
-      <c r="AK137" t="b">
+      <c r="AK137" s="1" t="b">
         <v>0</v>
       </c>
       <c r="AL137" t="b">
@@ -46862,7 +46884,7 @@
       <c r="AJ138" t="b">
         <v>1</v>
       </c>
-      <c r="AK138" t="b">
+      <c r="AK138" s="1" t="b">
         <v>0</v>
       </c>
       <c r="AL138" t="b">
@@ -46917,8 +46939,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:CJK138"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:A1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -47032,7 +47054,7 @@
       <c r="AJ1" t="s">
         <v>35</v>
       </c>
-      <c r="AK1" t="s">
+      <c r="AK1" s="1" t="s">
         <v>36</v>
       </c>
       <c r="AL1" t="s">
@@ -53821,6 +53843,9 @@
       <c r="CJK1" t="s">
         <v>58</v>
       </c>
+    </row>
+    <row r="2" spans="1:2299">
+      <c r="AK2" s="1"/>
     </row>
     <row r="3" spans="1:2299">
       <c r="A3" t="s">
@@ -53931,7 +53956,7 @@
       <c r="AJ3" t="b">
         <v>1</v>
       </c>
-      <c r="AK3" t="b">
+      <c r="AK3" s="1" t="b">
         <v>0</v>
       </c>
       <c r="AL3" t="b">
@@ -54080,7 +54105,7 @@
       <c r="AJ4" t="b">
         <v>0</v>
       </c>
-      <c r="AK4" t="b">
+      <c r="AK4" s="1" t="b">
         <v>0</v>
       </c>
       <c r="AL4" t="b">
@@ -54229,7 +54254,7 @@
       <c r="AJ5" t="b">
         <v>0</v>
       </c>
-      <c r="AK5" t="b">
+      <c r="AK5" s="1" t="b">
         <v>0</v>
       </c>
       <c r="AL5" t="b">
@@ -54378,7 +54403,7 @@
       <c r="AJ6" t="b">
         <v>0</v>
       </c>
-      <c r="AK6" t="b">
+      <c r="AK6" s="1" t="b">
         <v>0</v>
       </c>
       <c r="AL6" t="b">
@@ -54527,7 +54552,7 @@
       <c r="AJ7" t="b">
         <v>0</v>
       </c>
-      <c r="AK7" t="b">
+      <c r="AK7" s="1" t="b">
         <v>0</v>
       </c>
       <c r="AL7" t="b">
@@ -54676,7 +54701,7 @@
       <c r="AJ8" t="b">
         <v>0</v>
       </c>
-      <c r="AK8" t="b">
+      <c r="AK8" s="1" t="b">
         <v>0</v>
       </c>
       <c r="AL8" t="b">
@@ -54825,7 +54850,7 @@
       <c r="AJ9" t="b">
         <v>0</v>
       </c>
-      <c r="AK9" t="b">
+      <c r="AK9" s="1" t="b">
         <v>0</v>
       </c>
       <c r="AL9" t="b">
@@ -54974,8 +54999,8 @@
       <c r="AJ10" t="b">
         <v>1</v>
       </c>
-      <c r="AK10" t="b">
-        <v>0</v>
+      <c r="AK10" s="1" t="b">
+        <v>1</v>
       </c>
       <c r="AL10" t="b">
         <v>0</v>
@@ -56338,7 +56363,7 @@
       <c r="AJ11" t="b">
         <v>0</v>
       </c>
-      <c r="AK11" t="b">
+      <c r="AK11" s="1" t="b">
         <v>0</v>
       </c>
       <c r="AL11" t="b">
@@ -56487,7 +56512,7 @@
       <c r="AJ12" t="b">
         <v>0</v>
       </c>
-      <c r="AK12" t="b">
+      <c r="AK12" s="1" t="b">
         <v>0</v>
       </c>
       <c r="AL12" t="b">
@@ -56636,7 +56661,7 @@
       <c r="AJ13" t="b">
         <v>0</v>
       </c>
-      <c r="AK13" t="b">
+      <c r="AK13" s="1" t="b">
         <v>0</v>
       </c>
       <c r="AL13" t="b">
@@ -56785,7 +56810,7 @@
       <c r="AJ14" t="b">
         <v>0</v>
       </c>
-      <c r="AK14" t="b">
+      <c r="AK14" s="1" t="b">
         <v>0</v>
       </c>
       <c r="AL14" t="b">
@@ -56934,7 +56959,7 @@
       <c r="AJ15" t="b">
         <v>0</v>
       </c>
-      <c r="AK15" t="b">
+      <c r="AK15" s="1" t="b">
         <v>0</v>
       </c>
       <c r="AL15" t="b">
@@ -57083,7 +57108,7 @@
       <c r="AJ16" t="b">
         <v>1</v>
       </c>
-      <c r="AK16" t="b">
+      <c r="AK16" s="1" t="b">
         <v>0</v>
       </c>
       <c r="AL16" t="b">
@@ -57232,7 +57257,7 @@
       <c r="AJ17" t="b">
         <v>0</v>
       </c>
-      <c r="AK17" t="b">
+      <c r="AK17" s="1" t="b">
         <v>0</v>
       </c>
       <c r="AL17" t="b">
@@ -57381,7 +57406,7 @@
       <c r="AJ18" t="b">
         <v>0</v>
       </c>
-      <c r="AK18" t="b">
+      <c r="AK18" s="1" t="b">
         <v>0</v>
       </c>
       <c r="AL18" t="b">
@@ -57530,7 +57555,7 @@
       <c r="AJ19" t="b">
         <v>1</v>
       </c>
-      <c r="AK19" t="b">
+      <c r="AK19" s="1" t="b">
         <v>0</v>
       </c>
       <c r="AL19" t="b">
@@ -57679,7 +57704,7 @@
       <c r="AJ20" t="b">
         <v>1</v>
       </c>
-      <c r="AK20" t="b">
+      <c r="AK20" s="1" t="b">
         <v>0</v>
       </c>
       <c r="AL20" t="b">
@@ -57828,7 +57853,7 @@
       <c r="AJ21" t="b">
         <v>1</v>
       </c>
-      <c r="AK21" t="b">
+      <c r="AK21" s="1" t="b">
         <v>0</v>
       </c>
       <c r="AL21" t="b">
@@ -57977,7 +58002,7 @@
       <c r="AJ22" t="b">
         <v>0</v>
       </c>
-      <c r="AK22" t="b">
+      <c r="AK22" s="1" t="b">
         <v>0</v>
       </c>
       <c r="AL22" t="b">
@@ -58126,7 +58151,7 @@
       <c r="AJ23" t="b">
         <v>1</v>
       </c>
-      <c r="AK23" t="b">
+      <c r="AK23" s="1" t="b">
         <v>0</v>
       </c>
       <c r="AL23" t="b">
@@ -58275,8 +58300,8 @@
       <c r="AJ24" t="b">
         <v>1</v>
       </c>
-      <c r="AK24" t="b">
-        <v>0</v>
+      <c r="AK24" s="1" t="b">
+        <v>1</v>
       </c>
       <c r="AL24" t="b">
         <v>0</v>
@@ -59504,8 +59529,8 @@
       <c r="AJ25" t="b">
         <v>1</v>
       </c>
-      <c r="AK25" t="b">
-        <v>0</v>
+      <c r="AK25" s="1" t="b">
+        <v>1</v>
       </c>
       <c r="AL25" t="b">
         <v>0</v>
@@ -60463,7 +60488,7 @@
       <c r="AJ26" t="b">
         <v>0</v>
       </c>
-      <c r="AK26" t="b">
+      <c r="AK26" s="1" t="b">
         <v>0</v>
       </c>
       <c r="AL26" t="b">
@@ -60693,7 +60718,7 @@
       <c r="AJ27" t="b">
         <v>1</v>
       </c>
-      <c r="AK27" t="b">
+      <c r="AK27" s="1" t="b">
         <v>0</v>
       </c>
       <c r="AL27" t="b">
@@ -60842,7 +60867,7 @@
       <c r="AJ28" t="b">
         <v>1</v>
       </c>
-      <c r="AK28" t="b">
+      <c r="AK28" s="1" t="b">
         <v>1</v>
       </c>
       <c r="AL28" t="b">
@@ -61045,7 +61070,7 @@
       <c r="AJ29" t="b">
         <v>1</v>
       </c>
-      <c r="AK29" t="b">
+      <c r="AK29" s="1" t="b">
         <v>0</v>
       </c>
       <c r="AL29" t="b">
@@ -61194,7 +61219,7 @@
       <c r="AJ30" t="b">
         <v>1</v>
       </c>
-      <c r="AK30" t="b">
+      <c r="AK30" s="1" t="b">
         <v>0</v>
       </c>
       <c r="AL30" t="b">
@@ -61343,7 +61368,7 @@
       <c r="AJ31" t="b">
         <v>0</v>
       </c>
-      <c r="AK31" t="b">
+      <c r="AK31" s="1" t="b">
         <v>0</v>
       </c>
       <c r="AL31" t="b">
@@ -61492,7 +61517,7 @@
       <c r="AJ32" t="b">
         <v>1</v>
       </c>
-      <c r="AK32" t="b">
+      <c r="AK32" s="1" t="b">
         <v>0</v>
       </c>
       <c r="AL32" t="b">
@@ -61641,7 +61666,7 @@
       <c r="AJ33" t="b">
         <v>0</v>
       </c>
-      <c r="AK33" t="b">
+      <c r="AK33" s="1" t="b">
         <v>0</v>
       </c>
       <c r="AL33" t="b">
@@ -61790,7 +61815,7 @@
       <c r="AJ34" t="b">
         <v>0</v>
       </c>
-      <c r="AK34" t="b">
+      <c r="AK34" s="1" t="b">
         <v>0</v>
       </c>
       <c r="AL34" t="b">
@@ -61939,7 +61964,7 @@
       <c r="AJ35" t="b">
         <v>1</v>
       </c>
-      <c r="AK35" t="b">
+      <c r="AK35" s="1" t="b">
         <v>0</v>
       </c>
       <c r="AL35" t="b">
@@ -62088,7 +62113,7 @@
       <c r="AJ36" t="b">
         <v>1</v>
       </c>
-      <c r="AK36" t="b">
+      <c r="AK36" s="1" t="b">
         <v>0</v>
       </c>
       <c r="AL36" t="b">
@@ -62237,7 +62262,7 @@
       <c r="AJ37" t="b">
         <v>1</v>
       </c>
-      <c r="AK37" t="b">
+      <c r="AK37" s="1" t="b">
         <v>0</v>
       </c>
       <c r="AL37" t="b">
@@ -62386,7 +62411,7 @@
       <c r="AJ38" t="b">
         <v>0</v>
       </c>
-      <c r="AK38" t="b">
+      <c r="AK38" s="1" t="b">
         <v>0</v>
       </c>
       <c r="AL38" t="b">
@@ -62535,8 +62560,8 @@
       <c r="AJ39" t="b">
         <v>1</v>
       </c>
-      <c r="AK39" t="b">
-        <v>0</v>
+      <c r="AK39" s="1" t="b">
+        <v>1</v>
       </c>
       <c r="AL39" t="b">
         <v>0</v>
@@ -63170,7 +63195,7 @@
       <c r="AJ40" t="b">
         <v>0</v>
       </c>
-      <c r="AK40" t="b">
+      <c r="AK40" s="1" t="b">
         <v>1</v>
       </c>
       <c r="AL40" t="b">
@@ -63427,7 +63452,7 @@
       <c r="AJ41" t="b">
         <v>0</v>
       </c>
-      <c r="AK41" t="b">
+      <c r="AK41" s="1" t="b">
         <v>1</v>
       </c>
       <c r="AL41" t="b">
@@ -63684,7 +63709,7 @@
       <c r="AJ42" t="b">
         <v>1</v>
       </c>
-      <c r="AK42" t="b">
+      <c r="AK42" s="1" t="b">
         <v>0</v>
       </c>
       <c r="AL42" t="b">
@@ -63833,7 +63858,7 @@
       <c r="AJ43" t="b">
         <v>0</v>
       </c>
-      <c r="AK43" t="b">
+      <c r="AK43" s="1" t="b">
         <v>0</v>
       </c>
       <c r="AL43" t="b">
@@ -63982,7 +64007,7 @@
       <c r="AJ44" t="b">
         <v>0</v>
       </c>
-      <c r="AK44" t="b">
+      <c r="AK44" s="1" t="b">
         <v>0</v>
       </c>
       <c r="AL44" t="b">
@@ -64131,7 +64156,7 @@
       <c r="AJ45" t="b">
         <v>0</v>
       </c>
-      <c r="AK45" t="b">
+      <c r="AK45" s="1" t="b">
         <v>0</v>
       </c>
       <c r="AL45" t="b">
@@ -64280,8 +64305,8 @@
       <c r="AJ46" t="b">
         <v>1</v>
       </c>
-      <c r="AK46" t="b">
-        <v>0</v>
+      <c r="AK46" s="1" t="b">
+        <v>1</v>
       </c>
       <c r="AL46" t="b">
         <v>0</v>
@@ -64969,7 +64994,7 @@
       <c r="AJ47" t="b">
         <v>0</v>
       </c>
-      <c r="AK47" t="b">
+      <c r="AK47" s="1" t="b">
         <v>0</v>
       </c>
       <c r="AL47" t="b">
@@ -65118,8 +65143,8 @@
       <c r="AJ48" t="b">
         <v>0</v>
       </c>
-      <c r="AK48" t="b">
-        <v>0</v>
+      <c r="AK48" s="1" t="b">
+        <v>1</v>
       </c>
       <c r="AL48" t="b">
         <v>0</v>
@@ -69560,7 +69585,7 @@
       <c r="AJ49" t="b">
         <v>1</v>
       </c>
-      <c r="AK49" t="b">
+      <c r="AK49" s="1" t="b">
         <v>0</v>
       </c>
       <c r="AL49" t="b">
@@ -69709,7 +69734,7 @@
       <c r="AJ50" t="b">
         <v>1</v>
       </c>
-      <c r="AK50" t="b">
+      <c r="AK50" s="1" t="b">
         <v>0</v>
       </c>
       <c r="AL50" t="b">
@@ -69858,7 +69883,7 @@
       <c r="AJ51" t="b">
         <v>1</v>
       </c>
-      <c r="AK51" t="b">
+      <c r="AK51" s="1" t="b">
         <v>0</v>
       </c>
       <c r="AL51" t="b">
@@ -70007,7 +70032,7 @@
       <c r="AJ52" t="b">
         <v>0</v>
       </c>
-      <c r="AK52" t="b">
+      <c r="AK52" s="1" t="b">
         <v>0</v>
       </c>
       <c r="AL52" t="b">
@@ -70156,7 +70181,7 @@
       <c r="AJ53" t="b">
         <v>1</v>
       </c>
-      <c r="AK53" t="b">
+      <c r="AK53" s="1" t="b">
         <v>0</v>
       </c>
       <c r="AL53" t="b">
@@ -70305,7 +70330,7 @@
       <c r="AJ54" t="b">
         <v>0</v>
       </c>
-      <c r="AK54" t="b">
+      <c r="AK54" s="1" t="b">
         <v>0</v>
       </c>
       <c r="AL54" t="b">
@@ -70454,7 +70479,7 @@
       <c r="AJ55" t="b">
         <v>1</v>
       </c>
-      <c r="AK55" t="b">
+      <c r="AK55" s="1" t="b">
         <v>0</v>
       </c>
       <c r="AL55" t="b">
@@ -70603,7 +70628,7 @@
       <c r="AJ56" t="b">
         <v>1</v>
       </c>
-      <c r="AK56" t="b">
+      <c r="AK56" s="1" t="b">
         <v>0</v>
       </c>
       <c r="AL56" t="b">
@@ -70752,7 +70777,7 @@
       <c r="AJ57" t="b">
         <v>0</v>
       </c>
-      <c r="AK57" t="b">
+      <c r="AK57" s="1" t="b">
         <v>0</v>
       </c>
       <c r="AL57" t="b">
@@ -70901,7 +70926,7 @@
       <c r="AJ58" t="b">
         <v>1</v>
       </c>
-      <c r="AK58" t="b">
+      <c r="AK58" s="1" t="b">
         <v>0</v>
       </c>
       <c r="AL58" t="b">
@@ -71050,7 +71075,7 @@
       <c r="AJ59" t="b">
         <v>1</v>
       </c>
-      <c r="AK59" t="b">
+      <c r="AK59" s="1" t="b">
         <v>0</v>
       </c>
       <c r="AL59" t="b">
@@ -71199,7 +71224,7 @@
       <c r="AJ60" t="b">
         <v>1</v>
       </c>
-      <c r="AK60" t="b">
+      <c r="AK60" s="1" t="b">
         <v>0</v>
       </c>
       <c r="AL60" t="b">
@@ -71348,7 +71373,7 @@
       <c r="AJ61" t="b">
         <v>0</v>
       </c>
-      <c r="AK61" t="b">
+      <c r="AK61" s="1" t="b">
         <v>0</v>
       </c>
       <c r="AL61" t="b">
@@ -71497,7 +71522,7 @@
       <c r="AJ62" t="b">
         <v>0</v>
       </c>
-      <c r="AK62" t="b">
+      <c r="AK62" s="1" t="b">
         <v>0</v>
       </c>
       <c r="AL62" t="b">
@@ -71646,7 +71671,7 @@
       <c r="AJ63" t="b">
         <v>1</v>
       </c>
-      <c r="AK63" t="b">
+      <c r="AK63" s="1" t="b">
         <v>0</v>
       </c>
       <c r="AL63" t="b">
@@ -71795,7 +71820,7 @@
       <c r="AJ64" t="b">
         <v>0</v>
       </c>
-      <c r="AK64" t="b">
+      <c r="AK64" s="1" t="b">
         <v>0</v>
       </c>
       <c r="AL64" t="b">
@@ -71944,8 +71969,8 @@
       <c r="AJ65" t="b">
         <v>0</v>
       </c>
-      <c r="AK65" t="b">
-        <v>0</v>
+      <c r="AK65" s="1" t="b">
+        <v>1</v>
       </c>
       <c r="AL65" t="b">
         <v>0</v>
@@ -72579,8 +72604,8 @@
       <c r="AJ66" t="b">
         <v>0</v>
       </c>
-      <c r="AK66" t="b">
-        <v>0</v>
+      <c r="AK66" s="1" t="b">
+        <v>1</v>
       </c>
       <c r="AL66" t="b">
         <v>0</v>
@@ -74456,7 +74481,7 @@
       <c r="AJ67" t="b">
         <v>1</v>
       </c>
-      <c r="AK67" t="b">
+      <c r="AK67" s="1" t="b">
         <v>0</v>
       </c>
       <c r="AL67" t="b">
@@ -74605,8 +74630,8 @@
       <c r="AJ68" t="b">
         <v>1</v>
       </c>
-      <c r="AK68" t="b">
-        <v>0</v>
+      <c r="AK68" s="1" t="b">
+        <v>1</v>
       </c>
       <c r="AL68" t="b">
         <v>0</v>
@@ -75051,7 +75076,7 @@
       <c r="AJ69" t="b">
         <v>1</v>
       </c>
-      <c r="AK69" t="b">
+      <c r="AK69" s="1" t="b">
         <v>0</v>
       </c>
       <c r="AL69" t="b">
@@ -75200,7 +75225,7 @@
       <c r="AJ70" t="b">
         <v>1</v>
       </c>
-      <c r="AK70" t="b">
+      <c r="AK70" s="1" t="b">
         <v>0</v>
       </c>
       <c r="AL70" t="b">
@@ -75349,7 +75374,7 @@
       <c r="AJ71" t="b">
         <v>0</v>
       </c>
-      <c r="AK71" t="b">
+      <c r="AK71" s="1" t="b">
         <v>0</v>
       </c>
       <c r="AL71" t="b">
@@ -75498,7 +75523,7 @@
       <c r="AJ72" t="b">
         <v>0</v>
       </c>
-      <c r="AK72" t="b">
+      <c r="AK72" s="1" t="b">
         <v>0</v>
       </c>
       <c r="AL72" t="b">
@@ -75647,7 +75672,7 @@
       <c r="AJ73" t="b">
         <v>1</v>
       </c>
-      <c r="AK73" t="b">
+      <c r="AK73" s="1" t="b">
         <v>0</v>
       </c>
       <c r="AL73" t="b">
@@ -75796,7 +75821,7 @@
       <c r="AJ74" t="b">
         <v>0</v>
       </c>
-      <c r="AK74" t="b">
+      <c r="AK74" s="1" t="b">
         <v>0</v>
       </c>
       <c r="AL74" t="b">
@@ -75945,7 +75970,7 @@
       <c r="AJ75" t="b">
         <v>0</v>
       </c>
-      <c r="AK75" t="b">
+      <c r="AK75" s="1" t="b">
         <v>0</v>
       </c>
       <c r="AL75" t="b">
@@ -76094,8 +76119,8 @@
       <c r="AJ76" t="b">
         <v>0</v>
       </c>
-      <c r="AK76" t="b">
-        <v>0</v>
+      <c r="AK76" s="1" t="b">
+        <v>1</v>
       </c>
       <c r="AL76" t="b">
         <v>0</v>
@@ -76756,7 +76781,7 @@
       <c r="AJ77" t="b">
         <v>0</v>
       </c>
-      <c r="AK77" t="b">
+      <c r="AK77" s="1" t="b">
         <v>0</v>
       </c>
       <c r="AL77" t="b">
@@ -76905,7 +76930,7 @@
       <c r="AJ78" t="b">
         <v>0</v>
       </c>
-      <c r="AK78" t="b">
+      <c r="AK78" s="1" t="b">
         <v>0</v>
       </c>
       <c r="AL78" t="b">
@@ -77054,7 +77079,7 @@
       <c r="AJ79" t="b">
         <v>1</v>
       </c>
-      <c r="AK79" t="b">
+      <c r="AK79" s="1" t="b">
         <v>0</v>
       </c>
       <c r="AL79" t="b">
@@ -77419,7 +77444,7 @@
       <c r="AJ80" t="b">
         <v>1</v>
       </c>
-      <c r="AK80" t="b">
+      <c r="AK80" s="1" t="b">
         <v>0</v>
       </c>
       <c r="AL80" t="b">
@@ -77568,7 +77593,7 @@
       <c r="AJ81" t="b">
         <v>1</v>
       </c>
-      <c r="AK81" t="b">
+      <c r="AK81" s="1" t="b">
         <v>0</v>
       </c>
       <c r="AL81" t="b">
@@ -77717,7 +77742,7 @@
       <c r="AJ82" t="b">
         <v>1</v>
       </c>
-      <c r="AK82" t="b">
+      <c r="AK82" s="1" t="b">
         <v>0</v>
       </c>
       <c r="AL82" t="b">
@@ -77866,7 +77891,7 @@
       <c r="AJ83" t="b">
         <v>1</v>
       </c>
-      <c r="AK83" t="b">
+      <c r="AK83" s="1" t="b">
         <v>0</v>
       </c>
       <c r="AL83" t="b">
@@ -78015,7 +78040,7 @@
       <c r="AJ84" t="b">
         <v>1</v>
       </c>
-      <c r="AK84" t="b">
+      <c r="AK84" s="1" t="b">
         <v>0</v>
       </c>
       <c r="AL84" t="b">
@@ -78164,7 +78189,7 @@
       <c r="AJ85" t="b">
         <v>1</v>
       </c>
-      <c r="AK85" t="b">
+      <c r="AK85" s="1" t="b">
         <v>0</v>
       </c>
       <c r="AL85" t="b">
@@ -78313,7 +78338,7 @@
       <c r="AJ86" t="b">
         <v>0</v>
       </c>
-      <c r="AK86" t="b">
+      <c r="AK86" s="1" t="b">
         <v>0</v>
       </c>
       <c r="AL86" t="b">
@@ -78462,7 +78487,7 @@
       <c r="AJ87" t="b">
         <v>0</v>
       </c>
-      <c r="AK87" t="b">
+      <c r="AK87" s="1" t="b">
         <v>0</v>
       </c>
       <c r="AL87" t="b">
@@ -78611,7 +78636,7 @@
       <c r="AJ88" t="b">
         <v>0</v>
       </c>
-      <c r="AK88" t="b">
+      <c r="AK88" s="1" t="b">
         <v>0</v>
       </c>
       <c r="AL88" t="b">
@@ -78760,7 +78785,7 @@
       <c r="AJ89" t="b">
         <v>0</v>
       </c>
-      <c r="AK89" t="b">
+      <c r="AK89" s="1" t="b">
         <v>0</v>
       </c>
       <c r="AL89" t="b">
@@ -78909,7 +78934,7 @@
       <c r="AJ90" t="b">
         <v>0</v>
       </c>
-      <c r="AK90" t="b">
+      <c r="AK90" s="1" t="b">
         <v>0</v>
       </c>
       <c r="AL90" t="b">
@@ -79058,7 +79083,7 @@
       <c r="AJ91" t="b">
         <v>0</v>
       </c>
-      <c r="AK91" t="b">
+      <c r="AK91" s="1" t="b">
         <v>0</v>
       </c>
       <c r="AL91" t="b">
@@ -79207,7 +79232,7 @@
       <c r="AJ92" t="b">
         <v>1</v>
       </c>
-      <c r="AK92" t="b">
+      <c r="AK92" s="1" t="b">
         <v>0</v>
       </c>
       <c r="AL92" t="b">
@@ -81273,7 +81298,7 @@
       <c r="AJ93" t="b">
         <v>0</v>
       </c>
-      <c r="AK93" t="b">
+      <c r="AK93" s="1" t="b">
         <v>0</v>
       </c>
       <c r="AL93" t="b">
@@ -81422,7 +81447,7 @@
       <c r="AJ94" t="b">
         <v>0</v>
       </c>
-      <c r="AK94" t="b">
+      <c r="AK94" s="1" t="b">
         <v>0</v>
       </c>
       <c r="AL94" t="b">
@@ -81571,7 +81596,7 @@
       <c r="AJ95" t="b">
         <v>1</v>
       </c>
-      <c r="AK95" t="b">
+      <c r="AK95" s="1" t="b">
         <v>0</v>
       </c>
       <c r="AL95" t="b">
@@ -81720,7 +81745,7 @@
       <c r="AJ96" t="b">
         <v>0</v>
       </c>
-      <c r="AK96" t="b">
+      <c r="AK96" s="1" t="b">
         <v>0</v>
       </c>
       <c r="AL96" t="b">
@@ -81869,7 +81894,7 @@
       <c r="AJ97" t="b">
         <v>0</v>
       </c>
-      <c r="AK97" t="b">
+      <c r="AK97" s="1" t="b">
         <v>0</v>
       </c>
       <c r="AL97" t="b">
@@ -82072,7 +82097,7 @@
       <c r="AJ98" t="b">
         <v>0</v>
       </c>
-      <c r="AK98" t="b">
+      <c r="AK98" s="1" t="b">
         <v>0</v>
       </c>
       <c r="AL98" t="b">
@@ -82275,7 +82300,7 @@
       <c r="AJ99" t="b">
         <v>1</v>
       </c>
-      <c r="AK99" t="b">
+      <c r="AK99" s="1" t="b">
         <v>0</v>
       </c>
       <c r="AL99" t="b">
@@ -82424,7 +82449,7 @@
       <c r="AJ100" t="b">
         <v>0</v>
       </c>
-      <c r="AK100" t="b">
+      <c r="AK100" s="1" t="b">
         <v>0</v>
       </c>
       <c r="AL100" t="b">
@@ -82573,7 +82598,7 @@
       <c r="AJ101" t="b">
         <v>0</v>
       </c>
-      <c r="AK101" t="b">
+      <c r="AK101" s="1" t="b">
         <v>0</v>
       </c>
       <c r="AL101" t="b">
@@ -82776,7 +82801,7 @@
       <c r="AJ102" t="b">
         <v>0</v>
       </c>
-      <c r="AK102" t="b">
+      <c r="AK102" s="1" t="b">
         <v>0</v>
       </c>
       <c r="AL102" t="b">
@@ -82925,7 +82950,7 @@
       <c r="AJ103" t="b">
         <v>0</v>
       </c>
-      <c r="AK103" t="b">
+      <c r="AK103" s="1" t="b">
         <v>0</v>
       </c>
       <c r="AL103" t="b">
@@ -83074,7 +83099,7 @@
       <c r="AJ104" t="b">
         <v>0</v>
       </c>
-      <c r="AK104" t="b">
+      <c r="AK104" s="1" t="b">
         <v>0</v>
       </c>
       <c r="AL104" t="b">
@@ -83223,7 +83248,7 @@
       <c r="AJ105" t="b">
         <v>0</v>
       </c>
-      <c r="AK105" t="b">
+      <c r="AK105" s="1" t="b">
         <v>0</v>
       </c>
       <c r="AL105" t="b">
@@ -83372,7 +83397,7 @@
       <c r="AJ106" t="b">
         <v>0</v>
       </c>
-      <c r="AK106" t="b">
+      <c r="AK106" s="1" t="b">
         <v>0</v>
       </c>
       <c r="AL106" t="b">
@@ -83521,7 +83546,7 @@
       <c r="AJ107" t="b">
         <v>0</v>
       </c>
-      <c r="AK107" t="b">
+      <c r="AK107" s="1" t="b">
         <v>0</v>
       </c>
       <c r="AL107" t="b">
@@ -83670,7 +83695,7 @@
       <c r="AJ108" t="b">
         <v>1</v>
       </c>
-      <c r="AK108" t="b">
+      <c r="AK108" s="1" t="b">
         <v>0</v>
       </c>
       <c r="AL108" t="b">
@@ -83819,7 +83844,7 @@
       <c r="AJ109" t="b">
         <v>1</v>
       </c>
-      <c r="AK109" t="b">
+      <c r="AK109" s="1" t="b">
         <v>0</v>
       </c>
       <c r="AL109" t="b">
@@ -85129,7 +85154,7 @@
       <c r="AJ110" t="b">
         <v>1</v>
       </c>
-      <c r="AK110" t="b">
+      <c r="AK110" s="1" t="b">
         <v>0</v>
       </c>
       <c r="AL110" t="b">
@@ -86358,7 +86383,7 @@
       <c r="AJ111" t="b">
         <v>1</v>
       </c>
-      <c r="AK111" t="b">
+      <c r="AK111" s="1" t="b">
         <v>0</v>
       </c>
       <c r="AL111" t="b">
@@ -86507,7 +86532,7 @@
       <c r="AJ112" t="b">
         <v>1</v>
       </c>
-      <c r="AK112" t="b">
+      <c r="AK112" s="1" t="b">
         <v>0</v>
       </c>
       <c r="AL112" t="b">
@@ -87520,7 +87545,7 @@
       <c r="AJ113" t="b">
         <v>1</v>
       </c>
-      <c r="AK113" t="b">
+      <c r="AK113" s="1" t="b">
         <v>0</v>
       </c>
       <c r="AL113" t="b">
@@ -87669,7 +87694,7 @@
       <c r="AJ114" t="b">
         <v>0</v>
       </c>
-      <c r="AK114" t="b">
+      <c r="AK114" s="1" t="b">
         <v>0</v>
       </c>
       <c r="AL114" t="b">
@@ -87818,7 +87843,7 @@
       <c r="AJ115" t="b">
         <v>0</v>
       </c>
-      <c r="AK115" t="b">
+      <c r="AK115" s="1" t="b">
         <v>0</v>
       </c>
       <c r="AL115" t="b">
@@ -87967,7 +87992,7 @@
       <c r="AJ116" t="b">
         <v>0</v>
       </c>
-      <c r="AK116" t="b">
+      <c r="AK116" s="1" t="b">
         <v>0</v>
       </c>
       <c r="AL116" t="b">
@@ -88116,7 +88141,7 @@
       <c r="AJ117" t="b">
         <v>0</v>
       </c>
-      <c r="AK117" t="b">
+      <c r="AK117" s="1" t="b">
         <v>0</v>
       </c>
       <c r="AL117" t="b">
@@ -88265,7 +88290,7 @@
       <c r="AJ118" t="b">
         <v>1</v>
       </c>
-      <c r="AK118" t="b">
+      <c r="AK118" s="1" t="b">
         <v>0</v>
       </c>
       <c r="AL118" t="b">
@@ -88414,7 +88439,7 @@
       <c r="AJ119" t="b">
         <v>0</v>
       </c>
-      <c r="AK119" t="b">
+      <c r="AK119" s="1" t="b">
         <v>0</v>
       </c>
       <c r="AL119" t="b">
@@ -88563,7 +88588,7 @@
       <c r="AJ120" t="b">
         <v>0</v>
       </c>
-      <c r="AK120" t="b">
+      <c r="AK120" s="1" t="b">
         <v>0</v>
       </c>
       <c r="AL120" t="b">
@@ -88712,7 +88737,7 @@
       <c r="AJ121" t="b">
         <v>0</v>
       </c>
-      <c r="AK121" t="b">
+      <c r="AK121" s="1" t="b">
         <v>0</v>
       </c>
       <c r="AL121" t="b">
@@ -88861,7 +88886,7 @@
       <c r="AJ122" t="b">
         <v>0</v>
       </c>
-      <c r="AK122" t="b">
+      <c r="AK122" s="1" t="b">
         <v>0</v>
       </c>
       <c r="AL122" t="b">
@@ -89010,7 +89035,7 @@
       <c r="AJ123" t="b">
         <v>1</v>
       </c>
-      <c r="AK123" t="b">
+      <c r="AK123" s="1" t="b">
         <v>0</v>
       </c>
       <c r="AL123" t="b">
@@ -89159,7 +89184,7 @@
       <c r="AJ124" t="b">
         <v>1</v>
       </c>
-      <c r="AK124" t="b">
+      <c r="AK124" s="1" t="b">
         <v>0</v>
       </c>
       <c r="AL124" t="b">
@@ -89308,7 +89333,7 @@
       <c r="AJ125" t="b">
         <v>0</v>
       </c>
-      <c r="AK125" t="b">
+      <c r="AK125" s="1" t="b">
         <v>0</v>
       </c>
       <c r="AL125" t="b">
@@ -89457,7 +89482,7 @@
       <c r="AJ126" t="b">
         <v>1</v>
       </c>
-      <c r="AK126" t="b">
+      <c r="AK126" s="1" t="b">
         <v>0</v>
       </c>
       <c r="AL126" t="b">
@@ -89606,7 +89631,7 @@
       <c r="AJ127" t="b">
         <v>0</v>
       </c>
-      <c r="AK127" t="b">
+      <c r="AK127" s="1" t="b">
         <v>0</v>
       </c>
       <c r="AL127" t="b">
@@ -90079,7 +90104,7 @@
       <c r="AJ128" t="b">
         <v>1</v>
       </c>
-      <c r="AK128" t="b">
+      <c r="AK128" s="1" t="b">
         <v>0</v>
       </c>
       <c r="AL128" t="b">
@@ -90228,7 +90253,7 @@
       <c r="AJ129" t="b">
         <v>1</v>
       </c>
-      <c r="AK129" t="b">
+      <c r="AK129" s="1" t="b">
         <v>0</v>
       </c>
       <c r="AL129" t="b">
@@ -90377,7 +90402,7 @@
       <c r="AJ130" t="b">
         <v>0</v>
       </c>
-      <c r="AK130" t="b">
+      <c r="AK130" s="1" t="b">
         <v>0</v>
       </c>
       <c r="AL130" t="b">
@@ -90526,7 +90551,7 @@
       <c r="AJ131" t="b">
         <v>1</v>
       </c>
-      <c r="AK131" t="b">
+      <c r="AK131" s="1" t="b">
         <v>0</v>
       </c>
       <c r="AL131" t="b">
@@ -90675,7 +90700,7 @@
       <c r="AJ132" t="b">
         <v>0</v>
       </c>
-      <c r="AK132" t="b">
+      <c r="AK132" s="1" t="b">
         <v>0</v>
       </c>
       <c r="AL132" t="b">
@@ -90824,7 +90849,7 @@
       <c r="AJ133" t="b">
         <v>1</v>
       </c>
-      <c r="AK133" t="b">
+      <c r="AK133" s="1" t="b">
         <v>0</v>
       </c>
       <c r="AL133" t="b">
@@ -90973,7 +90998,7 @@
       <c r="AJ134" t="b">
         <v>0</v>
       </c>
-      <c r="AK134" t="b">
+      <c r="AK134" s="1" t="b">
         <v>0</v>
       </c>
       <c r="AL134" t="b">
@@ -91122,7 +91147,7 @@
       <c r="AJ135" t="b">
         <v>0</v>
       </c>
-      <c r="AK135" t="b">
+      <c r="AK135" s="1" t="b">
         <v>0</v>
       </c>
       <c r="AL135" t="b">
@@ -91271,7 +91296,7 @@
       <c r="AJ136" t="b">
         <v>0</v>
       </c>
-      <c r="AK136" t="b">
+      <c r="AK136" s="1" t="b">
         <v>0</v>
       </c>
       <c r="AL136" t="b">
@@ -91420,7 +91445,7 @@
       <c r="AJ137" t="b">
         <v>1</v>
       </c>
-      <c r="AK137" t="b">
+      <c r="AK137" s="1" t="b">
         <v>0</v>
       </c>
       <c r="AL137" t="b">
@@ -91569,7 +91594,7 @@
       <c r="AJ138" t="b">
         <v>1</v>
       </c>
-      <c r="AK138" t="b">
+      <c r="AK138" s="1" t="b">
         <v>0</v>
       </c>
       <c r="AL138" t="b">
@@ -91611,6 +91636,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
